--- a/GOA/Model runs/GOA_18.5.1/Data/2018_SAFE_pollock_parameters.xlsx
+++ b/GOA/Model runs/GOA_18.5.1/Data/2018_SAFE_pollock_parameters.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="885" yWindow="1455" windowWidth="24645" windowHeight="13380"/>
+    <workbookView xWindow="885" yWindow="1455" windowWidth="24645" windowHeight="13380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="deviates" sheetId="3" r:id="rId1"/>
+    <sheet name="main pars" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Year</t>
   </si>
@@ -45,6 +46,66 @@
   </si>
   <si>
     <t>R_dev</t>
+  </si>
+  <si>
+    <t>log_q1_dev</t>
+  </si>
+  <si>
+    <t>log_q3_dev:</t>
+  </si>
+  <si>
+    <t>log_slp2_srv1</t>
+  </si>
+  <si>
+    <t>inf2_srv1</t>
+  </si>
+  <si>
+    <t>log_slp1_srv2</t>
+  </si>
+  <si>
+    <t>inf1_srv2</t>
+  </si>
+  <si>
+    <t>log_slp2_srv2</t>
+  </si>
+  <si>
+    <t>inf2_srv2</t>
+  </si>
+  <si>
+    <t>log_slp1_srv3</t>
+  </si>
+  <si>
+    <t>inf1_srv3</t>
+  </si>
+  <si>
+    <t>log_slp1_srv6</t>
+  </si>
+  <si>
+    <t>inf1_srv6</t>
+  </si>
+  <si>
+    <t>log_slp2_srv6</t>
+  </si>
+  <si>
+    <t>inf2_srv6</t>
+  </si>
+  <si>
+    <t>log_q1_mean</t>
+  </si>
+  <si>
+    <t>log_q2_mean</t>
+  </si>
+  <si>
+    <t>log_q3_mean</t>
+  </si>
+  <si>
+    <t>log_q4</t>
+  </si>
+  <si>
+    <t>log_q5</t>
+  </si>
+  <si>
+    <t>log_q6</t>
   </si>
 </sst>
 </file>
@@ -406,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5:BF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -417,7 +478,7 @@
     <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,8 +494,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1970</v>
       </c>
@@ -450,8 +517,14 @@
       <c r="E2" s="1">
         <v>-0.915527401666</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1971</v>
       </c>
@@ -467,8 +540,14 @@
       <c r="E3" s="1">
         <v>1.386261098E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1972</v>
       </c>
@@ -484,8 +563,14 @@
       <c r="E4" s="1">
         <v>0.14905168718199999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1973</v>
       </c>
@@ -501,8 +586,14 @@
       <c r="E5" s="1">
         <v>1.21332468118</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1974</v>
       </c>
@@ -518,8 +609,14 @@
       <c r="E6" s="1">
         <v>-0.35883383375099998</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1975</v>
       </c>
@@ -535,8 +632,14 @@
       <c r="E7" s="1">
         <v>-0.349572883449</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1976</v>
       </c>
@@ -552,8 +655,14 @@
       <c r="E8" s="1">
         <v>1.01642301752</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1977</v>
       </c>
@@ -569,8 +678,14 @@
       <c r="E9" s="1">
         <v>1.3180261574600001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1978</v>
       </c>
@@ -586,8 +701,14 @@
       <c r="E10" s="1">
         <v>1.51936508816</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1979</v>
       </c>
@@ -603,8 +724,14 @@
       <c r="E11" s="1">
         <v>2.0933537966900002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1980</v>
       </c>
@@ -620,8 +747,14 @@
       <c r="E12" s="1">
         <v>1.41939224228</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-5.4765727054900001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1981</v>
       </c>
@@ -637,8 +770,14 @@
       <c r="E13" s="1">
         <v>0.83607353896400005</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1982</v>
       </c>
@@ -654,8 +793,14 @@
       <c r="E14" s="1">
         <v>0.83573616569099995</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1983</v>
       </c>
@@ -671,8 +816,14 @@
       <c r="E15" s="1">
         <v>0.460593818356</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1984</v>
       </c>
@@ -688,8 +839,14 @@
       <c r="E16" s="1">
         <v>0.63823530978999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1">
+        <v>9.5723471552200002E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1985</v>
       </c>
@@ -705,8 +862,14 @@
       <c r="E17" s="1">
         <v>1.54956412966</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1986</v>
       </c>
@@ -722,8 +885,14 @@
       <c r="E18" s="1">
         <v>0.319819977822</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1987</v>
       </c>
@@ -739,8 +908,14 @@
       <c r="E19" s="1">
         <v>-0.56045358349399998</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-5.4765727054999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1988</v>
       </c>
@@ -756,8 +931,14 @@
       <c r="E20" s="1">
         <v>0.46671642190700002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-5.4765727074700003E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1989</v>
       </c>
@@ -773,8 +954,14 @@
       <c r="E21" s="1">
         <v>1.2972362157399999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-5.6434773160799999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1990</v>
       </c>
@@ -790,8 +977,14 @@
       <c r="E22" s="1">
         <v>0.99202383657399995</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-6.8199409510100006E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1991</v>
       </c>
@@ -807,8 +1000,14 @@
       <c r="E23" s="1">
         <v>3.6477572589699997E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>9.5723471552299991E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-5.7253514612399997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1992</v>
       </c>
@@ -824,8 +1023,14 @@
       <c r="E24" s="1">
         <v>-0.28271175431399997</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="1">
+        <v>9.5723471586900005E-3</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-4.8710522767199997E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1993</v>
       </c>
@@ -841,8 +1046,14 @@
       <c r="E25" s="1">
         <v>-0.63196434479800001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="1">
+        <v>-4.85253645381E-4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>-3.1238512534799999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1994</v>
       </c>
@@ -858,8 +1069,14 @@
       <c r="E26" s="1">
         <v>-0.61110514553299999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>1.4744212718300001E-2</v>
+      </c>
+      <c r="G26" s="1">
+        <v>3.1580178734900001E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1995</v>
       </c>
@@ -875,8 +1092,14 @@
       <c r="E27" s="1">
         <v>0.76561115766400001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="1">
+        <v>5.0245611231999998E-2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>3.49970419115E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1996</v>
       </c>
@@ -892,8 +1115,14 @@
       <c r="E28" s="1">
         <v>6.5854875693799999E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>7.8040663432100005E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.0445306273200003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1997</v>
       </c>
@@ -909,8 +1138,14 @@
       <c r="E29" s="1">
         <v>-0.76755925908300005</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="1">
+        <v>9.10747075967E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.113575882524</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1998</v>
       </c>
@@ -926,8 +1161,14 @@
       <c r="E30" s="1">
         <v>-0.804374276015</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="1">
+        <v>8.71057908736E-2</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.151931118133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1999</v>
       </c>
@@ -943,8 +1184,14 @@
       <c r="E31" s="1">
         <v>-0.578316846607</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="1">
+        <v>6.1539917981400002E-2</v>
+      </c>
+      <c r="G31" s="1">
+        <v>0.193739231289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2000</v>
       </c>
@@ -960,8 +1207,14 @@
       <c r="E32" s="1">
         <v>0.74849037822099995</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="1">
+        <v>3.5974045090600003E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0.23490367257600001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2001</v>
       </c>
@@ -977,8 +1230,14 @@
       <c r="E33" s="1">
         <v>0.81971591617899997</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="1">
+        <v>2.11334312061E-3</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.26101511571300001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2002</v>
       </c>
@@ -994,8 +1253,14 @@
       <c r="E34" s="1">
         <v>-1.13853357722</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="1">
+        <v>-2.5330361571999999E-2</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.27987388387500001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2003</v>
       </c>
@@ -1011,8 +1276,14 @@
       <c r="E35" s="1">
         <v>-1.3947320586800001</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="1">
+        <v>-5.4111815665999999E-2</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.27853154829799998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2004</v>
       </c>
@@ -1028,8 +1299,14 @@
       <c r="E36" s="1">
         <v>-1.45472749507</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="1">
+        <v>-8.7841681714299999E-2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>0.27196691825899999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2005</v>
       </c>
@@ -1045,8 +1322,14 @@
       <c r="E37" s="1">
         <v>-0.51145890179200004</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="1">
+        <v>-0.12602143542899999</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.25753162178599998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2006</v>
       </c>
@@ -1062,8 +1345,14 @@
       <c r="E38" s="1">
         <v>0.65363838530600005</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="1">
+        <v>-0.17475658115199999</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.241716592215</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2007</v>
       </c>
@@ -1079,8 +1368,14 @@
       <c r="E39" s="1">
         <v>0.59620431411700003</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="1">
+        <v>-0.221303798385</v>
+      </c>
+      <c r="G39" s="1">
+        <v>0.23758502104199999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2008</v>
       </c>
@@ -1096,8 +1391,14 @@
       <c r="E40" s="1">
         <v>0.80708633971800003</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="1">
+        <v>-0.25401642085300002</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.22954065136900001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2009</v>
       </c>
@@ -1113,8 +1414,14 @@
       <c r="E41" s="1">
         <v>-8.1868339665400001E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="1">
+        <v>-0.24874653304300001</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0.20483749074300001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2010</v>
       </c>
@@ -1130,8 +1437,14 @@
       <c r="E42" s="1">
         <v>-0.94697952497500004</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="1">
+        <v>-0.20608743165099999</v>
+      </c>
+      <c r="G42" s="1">
+        <v>0.14438788870800001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2011</v>
       </c>
@@ -1147,8 +1460,14 @@
       <c r="E43" s="1">
         <v>0.52022172131</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="1">
+        <v>-0.154825891046</v>
+      </c>
+      <c r="G43" s="1">
+        <v>7.3419609805499997E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2012</v>
       </c>
@@ -1164,8 +1483,14 @@
       <c r="E44" s="1">
         <v>-1.2972719615999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="1">
+        <v>-0.103564350444</v>
+      </c>
+      <c r="G44" s="1">
+        <v>-7.1075260116300002E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2013</v>
       </c>
@@ -1181,8 +1506,14 @@
       <c r="E45" s="1">
         <v>2.4733651999799999</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="1">
+        <v>-1.27425879673E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <v>-0.113638658787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2014</v>
       </c>
@@ -1198,8 +1529,14 @@
       <c r="E46" s="1">
         <v>-0.42987196032000002</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="1">
+        <v>6.7633883216699997E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <v>-0.21276156966099999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2015</v>
       </c>
@@ -1215,8 +1552,14 @@
       <c r="E47" s="1">
         <v>-4.4154880286899996</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="1">
+        <v>0.13121037812700001</v>
+      </c>
+      <c r="G47" s="1">
+        <v>-0.31580308394599999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2016</v>
       </c>
@@ -1232,8 +1575,14 @@
       <c r="E48" s="1">
         <v>-6.2663129819299996</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="1">
+        <v>0.20009805878</v>
+      </c>
+      <c r="G48" s="1">
+        <v>-0.40124000076400002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2017</v>
       </c>
@@ -1249,8 +1598,14 @@
       <c r="E49" s="1">
         <v>-0.38899195671600001</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="1">
+        <v>0.28956706871799998</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-0.46193216445399998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2018</v>
       </c>
@@ -1265,6 +1620,143 @@
       </c>
       <c r="E50" s="1">
         <v>0.546779441059</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0.34032247710800001</v>
+      </c>
+      <c r="G50" s="1">
+        <v>-0.46544584603299999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.29689467475600001</v>
+      </c>
+      <c r="B2">
+        <v>9.4822997507100002</v>
+      </c>
+      <c r="C2">
+        <v>-0.48095003452500001</v>
+      </c>
+      <c r="D2">
+        <v>4.1137218829200002</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+      <c r="G2">
+        <v>0.354913182705</v>
+      </c>
+      <c r="H2">
+        <v>4.6308624705700003</v>
+      </c>
+      <c r="I2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J2">
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>-0.49425331829199998</v>
+      </c>
+      <c r="N2">
+        <v>-0.165251283562</v>
+      </c>
+      <c r="O2">
+        <v>-0.39856615956199998</v>
+      </c>
+      <c r="P2">
+        <v>-1.09082515064</v>
+      </c>
+      <c r="Q2">
+        <v>-0.87071400324899995</v>
+      </c>
+      <c r="R2">
+        <v>-0.188670006665</v>
       </c>
     </row>
   </sheetData>
